--- a/data/trans_orig/P14B15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B15-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEC148BF-A90E-4866-8FD3-C5D00C3BF0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A00E0DA-0474-46C9-AAF1-643BEEBAD7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF03DFC3-440C-4D7B-9EB8-C81B1EFF1587}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{19FDF34B-945B-4189-BE1A-69E009B905A6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="216">
   <si>
     <t>Población cuyo problemas crónicos de la piel le limita en 2012 (Tasa respuesta: 1,29%)</t>
   </si>
@@ -93,16 +93,16 @@
     <t>33,02%</t>
   </si>
   <si>
-    <t>67,04%</t>
+    <t>66,93%</t>
   </si>
   <si>
     <t>39,69%</t>
   </si>
   <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
   </si>
   <si>
     <t>50,48%</t>
@@ -111,16 +111,16 @@
     <t>66,98%</t>
   </si>
   <si>
-    <t>32,96%</t>
+    <t>33,07%</t>
   </si>
   <si>
     <t>60,31%</t>
   </si>
   <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -156,49 +156,49 @@
     <t>15,28%</t>
   </si>
   <si>
-    <t>41,73%</t>
+    <t>47,87%</t>
   </si>
   <si>
     <t>47,65%</t>
   </si>
   <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
   </si>
   <si>
     <t>28,44%</t>
   </si>
   <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
   </si>
   <si>
     <t>84,72%</t>
   </si>
   <si>
-    <t>58,27%</t>
+    <t>52,13%</t>
   </si>
   <si>
     <t>52,35%</t>
   </si>
   <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
   </si>
   <si>
     <t>71,56%</t>
   </si>
   <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -213,7 +213,7 @@
     <t>14,78%</t>
   </si>
   <si>
-    <t>58,48%</t>
+    <t>59,39%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -225,7 +225,7 @@
     <t>85,22%</t>
   </si>
   <si>
-    <t>41,52%</t>
+    <t>40,61%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -234,7 +234,7 @@
     <t>16,51%</t>
   </si>
   <si>
-    <t>68,62%</t>
+    <t>68,18%</t>
   </si>
   <si>
     <t>31,79%</t>
@@ -243,13 +243,13 @@
     <t>21,54%</t>
   </si>
   <si>
-    <t>56,01%</t>
+    <t>55,45%</t>
   </si>
   <si>
     <t>83,49%</t>
   </si>
   <si>
-    <t>31,38%</t>
+    <t>31,82%</t>
   </si>
   <si>
     <t>68,21%</t>
@@ -258,7 +258,7 @@
     <t>78,46%</t>
   </si>
   <si>
-    <t>43,99%</t>
+    <t>44,55%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -267,7 +267,7 @@
     <t>18,98%</t>
   </si>
   <si>
-    <t>53,37%</t>
+    <t>51,68%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -276,13 +276,13 @@
     <t>13,76%</t>
   </si>
   <si>
-    <t>40,74%</t>
+    <t>47,92%</t>
   </si>
   <si>
     <t>81,02%</t>
   </si>
   <si>
-    <t>46,63%</t>
+    <t>48,32%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -291,7 +291,7 @@
     <t>86,24%</t>
   </si>
   <si>
-    <t>59,26%</t>
+    <t>52,08%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -300,10 +300,10 @@
     <t>55,37%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
   </si>
   <si>
     <t>74,2%</t>
@@ -312,19 +312,19 @@
     <t>61,23%</t>
   </si>
   <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
   </si>
   <si>
     <t>44,63%</t>
   </si>
   <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
   </si>
   <si>
     <t>25,8%</t>
@@ -333,64 +333,64 @@
     <t>38,77%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
   </si>
   <si>
     <t>24,39%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
   </si>
   <si>
     <t>39,12%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>60,88%</t>
   </si>
   <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
   </si>
   <si>
     <t>69,89%</t>
   </si>
   <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -405,19 +405,19 @@
     <t>34,77%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
   </si>
   <si>
     <t>29,12%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -426,19 +426,19 @@
     <t>65,23%</t>
   </si>
   <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
   </si>
   <si>
     <t>70,88%</t>
   </si>
   <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
   </si>
   <si>
     <t>26,65%</t>
@@ -450,7 +450,7 @@
     <t>20,79%</t>
   </si>
   <si>
-    <t>80,0%</t>
+    <t>79,09%</t>
   </si>
   <si>
     <t>73,35%</t>
@@ -462,7 +462,7 @@
     <t>79,21%</t>
   </si>
   <si>
-    <t>20,0%</t>
+    <t>20,91%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -480,25 +480,25 @@
     <t>18,85%</t>
   </si>
   <si>
-    <t>78,69%</t>
+    <t>78,83%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>55,16%</t>
+    <t>45,55%</t>
   </si>
   <si>
     <t>81,15%</t>
   </si>
   <si>
-    <t>21,31%</t>
+    <t>21,17%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>44,84%</t>
+    <t>54,45%</t>
   </si>
   <si>
     <t>55,17%</t>
@@ -507,12 +507,18 @@
     <t>44,88%</t>
   </si>
   <si>
+    <t>83,36%</t>
+  </si>
+  <si>
     <t>44,83%</t>
   </si>
   <si>
     <t>55,12%</t>
   </si>
   <si>
+    <t>16,64%</t>
+  </si>
+  <si>
     <t>17,52%</t>
   </si>
   <si>
@@ -552,10 +558,10 @@
     <t>25,19%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -573,112 +579,112 @@
     <t>74,81%</t>
   </si>
   <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>8,18%</t>
   </si>
   <si>
-    <t>34,68%</t>
+    <t>34,89%</t>
   </si>
   <si>
     <t>27,39%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
   </si>
   <si>
     <t>91,82%</t>
   </si>
   <si>
-    <t>65,32%</t>
+    <t>65,11%</t>
   </si>
   <si>
     <t>72,61%</t>
   </si>
   <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
   </si>
   <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E70D1C-44E6-456C-B851-49F6C8AA17F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D968BD6-7DBA-4380-B0E1-5D7D350C1DD7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2603,7 +2609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0905AED-F5C5-404B-A7AA-9A9E95FD9836}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC3B4AA-A097-456B-8E2D-437B04C6859E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3383,7 +3389,7 @@
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,7 +3419,7 @@
         <v>1736</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
@@ -3428,10 +3434,10 @@
         <v>2624</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>16</v>
@@ -3517,13 +3523,13 @@
         <v>1093</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3532,13 +3538,13 @@
         <v>1885</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,10 +3574,10 @@
         <v>5144</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>16</v>
@@ -3583,10 +3589,10 @@
         <v>5144</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>16</v>
@@ -3663,7 +3669,7 @@
         <v>30</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3672,13 +3678,13 @@
         <v>4862</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -3687,13 +3693,13 @@
         <v>4862</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,7 +3717,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>28</v>
@@ -3723,13 +3729,13 @@
         <v>6587</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -3738,13 +3744,13 @@
         <v>14441</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3818,13 @@
         <v>1086</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3827,13 +3833,13 @@
         <v>4310</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -3842,13 +3848,13 @@
         <v>5396</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,10 +3869,10 @@
         <v>12195</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>16</v>
@@ -3878,13 +3884,13 @@
         <v>11425</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -3893,13 +3899,13 @@
         <v>23619</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3973,13 @@
         <v>2879</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -3982,13 +3988,13 @@
         <v>16543</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -3997,13 +4003,13 @@
         <v>19422</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4024,13 @@
         <v>32582</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>38</v>
@@ -4033,13 +4039,13 @@
         <v>39900</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>70</v>
@@ -4048,13 +4054,13 @@
         <v>72481</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B15-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A00E0DA-0474-46C9-AAF1-643BEEBAD7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCD30A77-3A68-4F12-8E3C-8B8319E1FD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{19FDF34B-945B-4189-BE1A-69E009B905A6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AEE5A23A-E4FA-4C73-B4A8-B5BB9BE8A372}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,16 +93,16 @@
     <t>33,02%</t>
   </si>
   <si>
-    <t>66,93%</t>
+    <t>67,01%</t>
   </si>
   <si>
     <t>39,69%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>50,48%</t>
@@ -111,16 +111,16 @@
     <t>66,98%</t>
   </si>
   <si>
-    <t>33,07%</t>
+    <t>32,99%</t>
   </si>
   <si>
     <t>60,31%</t>
   </si>
   <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -156,49 +156,49 @@
     <t>15,28%</t>
   </si>
   <si>
-    <t>47,87%</t>
+    <t>44,88%</t>
   </si>
   <si>
     <t>47,65%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
   </si>
   <si>
     <t>28,44%</t>
   </si>
   <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
   </si>
   <si>
     <t>84,72%</t>
   </si>
   <si>
-    <t>52,13%</t>
+    <t>55,12%</t>
   </si>
   <si>
     <t>52,35%</t>
   </si>
   <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
   </si>
   <si>
     <t>71,56%</t>
   </si>
   <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -213,7 +213,7 @@
     <t>14,78%</t>
   </si>
   <si>
-    <t>59,39%</t>
+    <t>58,3%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -225,7 +225,7 @@
     <t>85,22%</t>
   </si>
   <si>
-    <t>40,61%</t>
+    <t>41,7%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -243,7 +243,7 @@
     <t>21,54%</t>
   </si>
   <si>
-    <t>55,45%</t>
+    <t>64,77%</t>
   </si>
   <si>
     <t>83,49%</t>
@@ -258,7 +258,7 @@
     <t>78,46%</t>
   </si>
   <si>
-    <t>44,55%</t>
+    <t>35,23%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -267,7 +267,7 @@
     <t>18,98%</t>
   </si>
   <si>
-    <t>51,68%</t>
+    <t>54,22%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -276,13 +276,13 @@
     <t>13,76%</t>
   </si>
   <si>
-    <t>47,92%</t>
+    <t>40,96%</t>
   </si>
   <si>
     <t>81,02%</t>
   </si>
   <si>
-    <t>48,32%</t>
+    <t>45,78%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -291,7 +291,7 @@
     <t>86,24%</t>
   </si>
   <si>
-    <t>52,08%</t>
+    <t>59,04%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -300,103 +300,109 @@
     <t>55,37%</t>
   </si>
   <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
   </si>
   <si>
     <t>74,2%</t>
   </si>
   <si>
+    <t>22,74%</t>
+  </si>
+  <si>
     <t>61,23%</t>
   </si>
   <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
   </si>
   <si>
     <t>44,63%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
   </si>
   <si>
     <t>25,8%</t>
   </si>
   <si>
+    <t>77,26%</t>
+  </si>
+  <si>
     <t>38,77%</t>
   </si>
   <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
   </si>
   <si>
     <t>24,39%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
   </si>
   <si>
     <t>39,12%</t>
   </si>
   <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>60,88%</t>
   </si>
   <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
   </si>
   <si>
     <t>69,89%</t>
   </si>
   <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo problemas crónicos de la piel le limita en 2015 (Tasa respuesta: 1,34%)</t>
+    <t>Población cuyo problemas crónicos de la piel le limita en 2016 (Tasa respuesta: 1,34%)</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -405,19 +411,19 @@
     <t>34,77%</t>
   </si>
   <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
   </si>
   <si>
     <t>29,12%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -426,19 +432,19 @@
     <t>65,23%</t>
   </si>
   <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
   </si>
   <si>
     <t>70,88%</t>
   </si>
   <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
   <si>
     <t>26,65%</t>
@@ -450,7 +456,7 @@
     <t>20,79%</t>
   </si>
   <si>
-    <t>79,09%</t>
+    <t>81,56%</t>
   </si>
   <si>
     <t>73,35%</t>
@@ -462,7 +468,7 @@
     <t>79,21%</t>
   </si>
   <si>
-    <t>20,91%</t>
+    <t>18,44%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -480,67 +486,61 @@
     <t>18,85%</t>
   </si>
   <si>
-    <t>78,83%</t>
+    <t>80,0%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>45,55%</t>
+    <t>43,01%</t>
   </si>
   <si>
     <t>81,15%</t>
   </si>
   <si>
-    <t>21,17%</t>
+    <t>20,0%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>54,45%</t>
+    <t>56,99%</t>
   </si>
   <si>
     <t>55,17%</t>
   </si>
   <si>
-    <t>44,88%</t>
-  </si>
-  <si>
     <t>83,36%</t>
   </si>
   <si>
     <t>44,83%</t>
   </si>
   <si>
-    <t>55,12%</t>
-  </si>
-  <si>
     <t>16,64%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>69,08%</t>
+    <t>70,1%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>71,6%</t>
+    <t>70,24%</t>
   </si>
   <si>
     <t>82,48%</t>
   </si>
   <si>
-    <t>30,92%</t>
+    <t>29,9%</t>
   </si>
   <si>
     <t>73,18%</t>
   </si>
   <si>
-    <t>28,4%</t>
+    <t>29,76%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -549,19 +549,19 @@
     <t>42,46%</t>
   </si>
   <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
   </si>
   <si>
     <t>25,19%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -570,121 +570,121 @@
     <t>57,54%</t>
   </si>
   <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
   </si>
   <si>
     <t>74,81%</t>
   </si>
   <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>8,18%</t>
   </si>
   <si>
-    <t>34,89%</t>
+    <t>39,34%</t>
   </si>
   <si>
     <t>27,39%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
   </si>
   <si>
     <t>91,82%</t>
   </si>
   <si>
-    <t>65,11%</t>
+    <t>60,66%</t>
   </si>
   <si>
     <t>72,61%</t>
   </si>
   <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
   </si>
   <si>
     <t>21,13%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D968BD6-7DBA-4380-B0E1-5D7D350C1DD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D80C42-8705-4EC4-B6F8-EEC60D804F75}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2305,7 +2305,7 @@
         <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>16</v>
@@ -2317,13 +2317,13 @@
         <v>8595</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2338,13 @@
         <v>4314</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2353,13 +2353,13 @@
         <v>1128</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2368,13 +2368,13 @@
         <v>5442</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2442,13 @@
         <v>13897</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -2457,13 +2457,13 @@
         <v>14135</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>24</v>
@@ -2472,13 +2472,13 @@
         <v>28033</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2493,13 @@
         <v>43073</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -2508,13 +2508,13 @@
         <v>21996</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>60</v>
@@ -2523,13 +2523,13 @@
         <v>65068</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,7 +2585,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2609,7 +2609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC3B4AA-A097-456B-8E2D-437B04C6859E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4046B29D-2279-4FC4-AD9D-A75A62C635B8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2626,7 +2626,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2739,7 +2739,7 @@
         <v>30</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2748,13 +2748,13 @@
         <v>3054</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2763,13 +2763,13 @@
         <v>3054</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,7 +2787,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>28</v>
@@ -2799,13 +2799,13 @@
         <v>5728</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -2814,13 +2814,13 @@
         <v>7434</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2903,13 @@
         <v>1089</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2918,13 +2918,13 @@
         <v>1089</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,10 +2954,10 @@
         <v>2997</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -2969,10 +2969,10 @@
         <v>4149</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -3049,7 +3049,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>30</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>30</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,7 +3097,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>28</v>
@@ -3112,7 +3112,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>28</v>
@@ -3127,7 +3127,7 @@
         <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>28</v>
@@ -3198,13 +3198,13 @@
         <v>1000</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3228,13 +3228,13 @@
         <v>1000</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,10 +3249,10 @@
         <v>4306</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -3279,10 +3279,10 @@
         <v>8604</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -3368,7 +3368,7 @@
         <v>2136</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
@@ -3383,13 +3383,13 @@
         <v>2136</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,7 +3419,7 @@
         <v>1736</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
@@ -3434,7 +3434,7 @@
         <v>2624</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>159</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
